--- a/Garonzi_Imran_Klein_CocomoMdS/RACI_WBS_OBI/Garonzi_Imran_Klein_CocomoMdS_WBS.xlsx
+++ b/Garonzi_Imran_Klein_CocomoMdS/RACI_WBS_OBI/Garonzi_Imran_Klein_CocomoMdS_WBS.xlsx
@@ -35,22 +35,22 @@
     <t>Inizio Progetto</t>
   </si>
   <si>
-    <t>Livello</t>
+    <t>Level</t>
   </si>
   <si>
     <t>WBS</t>
   </si>
   <si>
-    <t>Descrizione Task</t>
+    <t>Task Description</t>
   </si>
   <si>
-    <t>Assegnato a</t>
+    <t>Assigned To</t>
   </si>
   <si>
-    <t>Inizio minimo</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>Inizio massimo</t>
+    <t>End</t>
   </si>
   <si>
     <t>Notes</t>
@@ -129,9 +129,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]ddd&quot;, &quot;mmm\ d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -541,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -568,7 +569,6 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -583,13 +583,13 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,9 +625,6 @@
     <xf borderId="16" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -659,9 +656,6 @@
     </xf>
     <xf borderId="21" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="6" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="6" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,7 +924,7 @@
     <col customWidth="1" min="3" max="3" width="10.38"/>
     <col customWidth="1" min="4" max="4" width="49.5"/>
     <col customWidth="1" min="5" max="5" width="19.13"/>
-    <col customWidth="1" min="6" max="7" width="13.88"/>
+    <col customWidth="1" min="6" max="7" width="11.25"/>
     <col customWidth="1" min="8" max="8" width="27.13"/>
     <col customWidth="1" min="9" max="9" width="1.75"/>
     <col customWidth="1" min="10" max="10" width="6.38"/>
@@ -947,7 +941,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1010,12 +1004,12 @@
         <v>44909.0</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="1"/>
@@ -1038,14 +1032,14 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="1"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1063,66 +1057,66 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="26.25" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="24" t="str">
+      <c r="C6" s="23" t="str">
         <f t="shared" ref="C6:C7" si="1">IF(B6="","",IF(B6&gt;OFFSET(B6,-1,0,1,1),IF(OFFSET(C6,-1,0,1,1)="","1",OFFSET(C6,-1,0,1,1))&amp;REPT(".1",B6-MAX(OFFSET(B6,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C6,-1,0,1,1))),REPT("1.",B6-1)&amp;IFERROR(VALUE(OFFSET(C6,-1,0,1,1))+1,"1"),IF(B6=1,"",IFERROR(LEFT(OFFSET(C6,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C6,-1,0,1,1),".","^",B6-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C6,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C6,-1,0,1,1)))),(B6-1)*LEN(OFFSET(C6,-1,0,1,1))+1,LEN(OFFSET(C6,-1,0,1,1)))))+1)))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1141,29 +1135,29 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>2.0</v>
       </c>
-      <c r="C7" s="24" t="str">
+      <c r="C7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>44909.0</v>
       </c>
-      <c r="G7" s="33">
-        <v>44910.0</v>
+      <c r="G7" s="31">
+        <v>44909.0</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1182,28 +1176,28 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>2.0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>44909.0</v>
       </c>
-      <c r="G8" s="33">
-        <v>44910.0</v>
+      <c r="G8" s="31">
+        <v>44909.0</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1222,28 +1216,28 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>2.0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>44909.0</v>
       </c>
-      <c r="G9" s="33">
-        <v>44910.0</v>
+      <c r="G9" s="31">
+        <v>44909.0</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1262,23 +1256,23 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>1.0</v>
       </c>
-      <c r="C10" s="24" t="str">
+      <c r="C10" s="23" t="str">
         <f t="shared" ref="C10:C24" si="2">IF(B10="","",IF(B10&gt;OFFSET(B10,-1,0,1,1),IF(OFFSET(C10,-1,0,1,1)="","1",OFFSET(C10,-1,0,1,1))&amp;REPT(".1",B10-MAX(OFFSET(B10,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C10,-1,0,1,1))),REPT("1.",B10-1)&amp;IFERROR(VALUE(OFFSET(C10,-1,0,1,1))+1,"1"),IF(B10=1,"",IFERROR(LEFT(OFFSET(C10,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C10,-1,0,1,1),".","^",B10-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C10,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C10,-1,0,1,1)))),(B10-1)*LEN(OFFSET(C10,-1,0,1,1))+1,LEN(OFFSET(C10,-1,0,1,1)))))+1)))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1297,29 +1291,29 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>2.0</v>
       </c>
-      <c r="C11" s="24" t="str">
+      <c r="C11" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G11" s="33">
-        <v>44914.0</v>
+      <c r="G11" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1338,29 +1332,29 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>2.0</v>
       </c>
-      <c r="C12" s="24" t="str">
+      <c r="C12" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.2</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G12" s="33">
-        <v>44914.0</v>
+      <c r="G12" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1379,29 +1373,29 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>2.0</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.3</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G13" s="33">
-        <v>44914.0</v>
+      <c r="G13" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1420,29 +1414,29 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>2.0</v>
       </c>
-      <c r="C14" s="24" t="str">
+      <c r="C14" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G14" s="33">
-        <v>44914.0</v>
+      <c r="G14" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1461,29 +1455,29 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>2.0</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G15" s="33">
-        <v>44914.0</v>
+      <c r="G15" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1502,29 +1496,29 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>2.0</v>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="C16" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G16" s="33">
-        <v>44914.0</v>
+      <c r="G16" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1543,29 +1537,29 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>2.0</v>
       </c>
-      <c r="C17" s="24" t="str">
+      <c r="C17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>44912.0</v>
       </c>
-      <c r="G17" s="33">
-        <v>44914.0</v>
+      <c r="G17" s="31">
+        <v>44912.0</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1584,20 +1578,20 @@
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>1.0</v>
       </c>
-      <c r="C18" s="24" t="str">
+      <c r="C18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="34"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1619,26 +1613,26 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>2.0</v>
       </c>
-      <c r="C19" s="24" t="str">
+      <c r="C19" s="23" t="str">
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>44913.0</v>
       </c>
-      <c r="G19" s="33">
-        <v>44917.0</v>
+      <c r="G19" s="31">
+        <v>44913.0</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1660,26 +1654,26 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>2.0</v>
       </c>
-      <c r="C20" s="24" t="str">
+      <c r="C20" s="23" t="str">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>44913.0</v>
       </c>
-      <c r="G20" s="33">
-        <v>44917.0</v>
+      <c r="G20" s="31">
+        <v>44913.0</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1701,26 +1695,26 @@
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <v>2.0</v>
       </c>
-      <c r="C21" s="24" t="str">
+      <c r="C21" s="23" t="str">
         <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>44913.0</v>
       </c>
-      <c r="G21" s="33">
-        <v>44917.0</v>
+      <c r="G21" s="31">
+        <v>44913.0</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1742,26 +1736,26 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>2.0</v>
       </c>
-      <c r="C22" s="24" t="str">
+      <c r="C22" s="23" t="str">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>44913.0</v>
       </c>
-      <c r="G22" s="33">
-        <v>44917.0</v>
+      <c r="G22" s="31">
+        <v>44913.0</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1783,29 +1777,29 @@
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="30">
+      <c r="B23" s="29">
         <v>2.0</v>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="23" t="str">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>44913.0</v>
       </c>
-      <c r="G23" s="33">
-        <v>44917.0</v>
+      <c r="G23" s="31">
+        <v>44913.0</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="29"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1824,16 +1818,16 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43" t="str">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>

--- a/Garonzi_Imran_Klein_CocomoMdS/RACI_WBS_OBI/Garonzi_Imran_Klein_CocomoMdS_WBS.xlsx
+++ b/Garonzi_Imran_Klein_CocomoMdS/RACI_WBS_OBI/Garonzi_Imran_Klein_CocomoMdS_WBS.xlsx
@@ -35,22 +35,22 @@
     <t>Inizio Progetto</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>Livello</t>
   </si>
   <si>
     <t>WBS</t>
   </si>
   <si>
-    <t>Task Description</t>
+    <t>Descrizione Task</t>
   </si>
   <si>
-    <t>Assigned To</t>
+    <t>Assegnato a</t>
   </si>
   <si>
-    <t>Start</t>
+    <t>Inizio minimo</t>
   </si>
   <si>
-    <t>End</t>
+    <t>Inizio massimo</t>
   </si>
   <si>
     <t>Notes</t>
@@ -129,10 +129,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]ddd&quot;, &quot;mmm\ d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -542,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -569,6 +568,7 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -583,13 +583,13 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,6 +625,9 @@
     <xf borderId="16" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,6 +659,9 @@
     </xf>
     <xf borderId="21" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="6" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="6" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,7 +930,7 @@
     <col customWidth="1" min="3" max="3" width="10.38"/>
     <col customWidth="1" min="4" max="4" width="49.5"/>
     <col customWidth="1" min="5" max="5" width="19.13"/>
-    <col customWidth="1" min="6" max="7" width="11.25"/>
+    <col customWidth="1" min="6" max="7" width="13.88"/>
     <col customWidth="1" min="8" max="8" width="27.13"/>
     <col customWidth="1" min="9" max="9" width="1.75"/>
     <col customWidth="1" min="10" max="10" width="6.38"/>
@@ -941,7 +947,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1004,12 +1010,12 @@
         <v>44909.0</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="1"/>
@@ -1032,14 +1038,14 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="1"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1057,66 +1063,66 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="26.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <v>1.0</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="24" t="str">
         <f t="shared" ref="C6:C7" si="1">IF(B6="","",IF(B6&gt;OFFSET(B6,-1,0,1,1),IF(OFFSET(C6,-1,0,1,1)="","1",OFFSET(C6,-1,0,1,1))&amp;REPT(".1",B6-MAX(OFFSET(B6,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C6,-1,0,1,1))),REPT("1.",B6-1)&amp;IFERROR(VALUE(OFFSET(C6,-1,0,1,1))+1,"1"),IF(B6=1,"",IFERROR(LEFT(OFFSET(C6,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C6,-1,0,1,1),".","^",B6-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C6,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C6,-1,0,1,1)))),(B6-1)*LEN(OFFSET(C6,-1,0,1,1))+1,LEN(OFFSET(C6,-1,0,1,1)))))+1)))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1135,29 +1141,29 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>2.0</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <v>44909.0</v>
       </c>
-      <c r="G7" s="31">
-        <v>44909.0</v>
+      <c r="G7" s="33">
+        <v>44910.0</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="33"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1176,28 +1182,28 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="29">
+      <c r="B8" s="30">
         <v>2.0</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="32">
         <v>44909.0</v>
       </c>
-      <c r="G8" s="31">
-        <v>44909.0</v>
+      <c r="G8" s="33">
+        <v>44910.0</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="33"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1216,28 +1222,28 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="29">
+      <c r="B9" s="30">
         <v>2.0</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <v>44909.0</v>
       </c>
-      <c r="G9" s="31">
-        <v>44909.0</v>
+      <c r="G9" s="33">
+        <v>44910.0</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1256,23 +1262,23 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="29">
+      <c r="B10" s="30">
         <v>1.0</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="24" t="str">
         <f t="shared" ref="C10:C24" si="2">IF(B10="","",IF(B10&gt;OFFSET(B10,-1,0,1,1),IF(OFFSET(C10,-1,0,1,1)="","1",OFFSET(C10,-1,0,1,1))&amp;REPT(".1",B10-MAX(OFFSET(B10,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C10,-1,0,1,1))),REPT("1.",B10-1)&amp;IFERROR(VALUE(OFFSET(C10,-1,0,1,1))+1,"1"),IF(B10=1,"",IFERROR(LEFT(OFFSET(C10,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C10,-1,0,1,1),".","^",B10-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C10,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C10,-1,0,1,1)))),(B10-1)*LEN(OFFSET(C10,-1,0,1,1))+1,LEN(OFFSET(C10,-1,0,1,1)))))+1)))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1291,29 +1297,29 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="29">
+      <c r="B11" s="30">
         <v>2.0</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G11" s="31">
-        <v>44912.0</v>
+      <c r="G11" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1332,29 +1338,29 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>2.0</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.2</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G12" s="31">
-        <v>44912.0</v>
+      <c r="G12" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1373,29 +1379,29 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="29">
+      <c r="B13" s="30">
         <v>2.0</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.3</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G13" s="31">
-        <v>44912.0</v>
+      <c r="G13" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1414,29 +1420,29 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="29">
+      <c r="B14" s="30">
         <v>2.0</v>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G14" s="31">
-        <v>44912.0</v>
+      <c r="G14" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1455,29 +1461,29 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="29">
+      <c r="B15" s="30">
         <v>2.0</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G15" s="31">
-        <v>44912.0</v>
+      <c r="G15" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1496,29 +1502,29 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="29">
+      <c r="B16" s="30">
         <v>2.0</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G16" s="31">
-        <v>44912.0</v>
+      <c r="G16" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1537,29 +1543,29 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="29">
+      <c r="B17" s="30">
         <v>2.0</v>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C17" s="24" t="str">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="32">
         <v>44912.0</v>
       </c>
-      <c r="G17" s="31">
-        <v>44912.0</v>
+      <c r="G17" s="33">
+        <v>44914.0</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1578,20 +1584,20 @@
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29">
+      <c r="B18" s="30">
         <v>1.0</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="24" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1613,26 +1619,26 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29">
+      <c r="B19" s="30">
         <v>2.0</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="24" t="str">
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="32">
         <v>44913.0</v>
       </c>
-      <c r="G19" s="31">
-        <v>44913.0</v>
+      <c r="G19" s="33">
+        <v>44917.0</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1654,26 +1660,26 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29">
+      <c r="B20" s="30">
         <v>2.0</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="24" t="str">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="32">
         <v>44913.0</v>
       </c>
-      <c r="G20" s="31">
-        <v>44913.0</v>
+      <c r="G20" s="33">
+        <v>44917.0</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1695,26 +1701,26 @@
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29">
+      <c r="B21" s="30">
         <v>2.0</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="24" t="str">
         <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="32">
         <v>44913.0</v>
       </c>
-      <c r="G21" s="31">
-        <v>44913.0</v>
+      <c r="G21" s="33">
+        <v>44917.0</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1736,26 +1742,26 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29">
+      <c r="B22" s="30">
         <v>2.0</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="24" t="str">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="32">
         <v>44913.0</v>
       </c>
-      <c r="G22" s="31">
-        <v>44913.0</v>
+      <c r="G22" s="33">
+        <v>44917.0</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1777,29 +1783,29 @@
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="29">
+      <c r="B23" s="30">
         <v>2.0</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="24" t="str">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="32">
         <v>44913.0</v>
       </c>
-      <c r="G23" s="31">
-        <v>44913.0</v>
+      <c r="G23" s="33">
+        <v>44917.0</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="28"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1818,16 +1824,16 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41" t="str">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
